--- a/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF1ED8A-121E-4A15-ACD9-1FD4307265B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF3AA6-2775-4010-8485-996889BA0760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1365,6 +1365,30 @@
     <xf numFmtId="180" fontId="22" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="45" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="46" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1382,30 +1406,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="45" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="46" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2018,7 +2018,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2070,107 +2070,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="90">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="90"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -4696,13 +4696,13 @@
       <c r="A34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38" t="str">
         <f t="shared" si="5"/>
@@ -4767,17 +4767,21 @@
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="98" t="s">
+      <c r="C35" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="96">
-        <v>0</v>
-      </c>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
+      <c r="D35" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="E35" s="91">
+        <v>45092</v>
+      </c>
+      <c r="F35" s="91">
+        <v>45099</v>
+      </c>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="5"/>
@@ -4839,17 +4843,21 @@
     </row>
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
-      <c r="B36" s="95" t="s">
+      <c r="B36" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="96">
-        <v>0</v>
-      </c>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
+      <c r="D36" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="91">
+        <v>45092</v>
+      </c>
+      <c r="F36" s="91">
+        <v>45099</v>
+      </c>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="5"/>
@@ -4911,19 +4919,19 @@
     </row>
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="96">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="97">
+      <c r="D37" s="90">
+        <v>0.3</v>
+      </c>
+      <c r="E37" s="91">
         <v>45092</v>
       </c>
-      <c r="F37" s="97">
+      <c r="F37" s="91">
         <v>45093</v>
       </c>
       <c r="G37" s="38"/>
@@ -4987,19 +4995,19 @@
     </row>
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="96">
-        <v>0.9</v>
-      </c>
-      <c r="E38" s="97">
+      <c r="D38" s="90">
+        <v>1</v>
+      </c>
+      <c r="E38" s="91">
         <v>45093</v>
       </c>
-      <c r="F38" s="97">
+      <c r="F38" s="91">
         <v>45093</v>
       </c>
       <c r="G38" s="38"/>
@@ -5063,17 +5071,21 @@
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="96">
-        <v>0</v>
-      </c>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
+      <c r="D39" s="90">
+        <v>0.8</v>
+      </c>
+      <c r="E39" s="91">
+        <v>45093</v>
+      </c>
+      <c r="F39" s="91">
+        <v>45096</v>
+      </c>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
       <c r="I39" s="5"/>
@@ -5135,17 +5147,21 @@
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="98" t="s">
+      <c r="C40" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="96">
-        <v>0</v>
-      </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
+      <c r="D40" s="90">
+        <v>0.8</v>
+      </c>
+      <c r="E40" s="91">
+        <v>45093</v>
+      </c>
+      <c r="F40" s="91">
+        <v>45096</v>
+      </c>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
       <c r="I40" s="5"/>
@@ -5207,17 +5223,21 @@
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
-      <c r="B41" s="95" t="s">
+      <c r="B41" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="96">
+      <c r="D41" s="90">
         <v>0</v>
       </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
+      <c r="E41" s="91">
+        <v>45097</v>
+      </c>
+      <c r="F41" s="91">
+        <v>45099</v>
+      </c>
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
       <c r="I41" s="5"/>
@@ -5279,17 +5299,21 @@
     </row>
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="98" t="s">
+      <c r="C42" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="96">
-        <v>0</v>
-      </c>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
+      <c r="D42" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="91">
+        <v>45093</v>
+      </c>
+      <c r="F42" s="91">
+        <v>45100</v>
+      </c>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
       <c r="I42" s="5"/>
@@ -5351,17 +5375,21 @@
     </row>
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="96">
-        <v>0</v>
-      </c>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
+      <c r="D43" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="91">
+        <v>45097</v>
+      </c>
+      <c r="F43" s="91">
+        <v>45100</v>
+      </c>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
       <c r="I43" s="5"/>
@@ -5701,26 +5729,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6008,7 +6016,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6017,19 +6025,27 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6050,10 +6066,22 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF3AA6-2775-4010-8485-996889BA0760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4609B5A7-A10E-4C40-BACB-842C99EC4A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,9 +268,6 @@
     <t>User.java</t>
   </si>
   <si>
-    <t>registration.jsp</t>
-  </si>
-  <si>
     <t>browse.jsp</t>
   </si>
   <si>
@@ -293,10 +290,6 @@
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>registration.js</t>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
     <t>t</t>
     <phoneticPr fontId="29"/>
   </si>
@@ -306,6 +299,14 @@
   </si>
   <si>
     <t>タスク</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>calendar.jsp</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>clendar.js</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1389,23 +1390,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2017,8 +2018,8 @@
   <dimension ref="A1:BL47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2041,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="28"/>
@@ -2070,107 +2071,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2412,10 +2413,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>24</v>
@@ -5072,10 +5073,10 @@
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D39" s="90">
         <v>0.8</v>
@@ -5148,10 +5149,10 @@
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="B40" s="89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="90">
         <v>0.8</v>
@@ -5224,13 +5225,13 @@
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="B41" s="89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D41" s="90">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E41" s="91">
         <v>45097</v>
@@ -5300,10 +5301,10 @@
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="B42" s="89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="90">
         <v>0.5</v>
@@ -5376,10 +5377,10 @@
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="90">
         <v>0.5</v>
@@ -5534,17 +5535,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D44">
@@ -5729,6 +5730,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6016,36 +6046,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6064,24 +6085,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4609B5A7-A10E-4C40-BACB-842C99EC4A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88896A00-7F3B-4295-85CC-4AA1B028849F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2018,7 +2018,7 @@
   <dimension ref="A1:BL47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -4927,7 +4927,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="90">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="91">
         <v>45092</v>
@@ -5231,7 +5231,7 @@
         <v>66</v>
       </c>
       <c r="D41" s="90">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E41" s="91">
         <v>45097</v>
@@ -5307,7 +5307,7 @@
         <v>57</v>
       </c>
       <c r="D42" s="90">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E42" s="91">
         <v>45093</v>

--- a/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88896A00-7F3B-4295-85CC-4AA1B028849F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E56A14-01D0-4326-8911-29B530FC86A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -123,21 +123,6 @@
     <t>プロジェクト主任</t>
   </si>
   <si>
-    <t>タスク 1</t>
-  </si>
-  <si>
-    <t>タスク 2</t>
-  </si>
-  <si>
-    <t>タスク 3</t>
-  </si>
-  <si>
-    <t>タスク 4</t>
-  </si>
-  <si>
-    <t>タスク 5</t>
-  </si>
-  <si>
     <t>この行の上に新しい行を挿入する</t>
   </si>
   <si>
@@ -290,10 +275,6 @@
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>t</t>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
     <t>ファイル</t>
     <phoneticPr fontId="29"/>
   </si>
@@ -307,6 +288,169 @@
   </si>
   <si>
     <t>clendar.js</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>RegistrationServlet.java</t>
+  </si>
+  <si>
+    <t>OtherinfServlet.java</t>
+  </si>
+  <si>
+    <t>UpdateServlet.java</t>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>TitleDao.java</t>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Title.java</t>
+  </si>
+  <si>
+    <t>registration.jsp</t>
+  </si>
+  <si>
+    <t>otherinf.jsp</t>
+  </si>
+  <si>
+    <t>update.jsp</t>
+  </si>
+  <si>
+    <t>registration.js</t>
+  </si>
+  <si>
+    <t>otherinf.js</t>
+  </si>
+  <si>
+    <t>update.js</t>
+  </si>
+  <si>
+    <t>registration.css</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>BoardServlet.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>BbsDAO.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Bbs.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>board.jsp</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>board.js</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>board.css</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>header.css</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+  </si>
+  <si>
+    <t>NewServlet.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ProfileServlet.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>PointDao.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Point.java</t>
+  </si>
+  <si>
+    <t>login.jsp</t>
+  </si>
+  <si>
+    <t>new.jsp</t>
+  </si>
+  <si>
+    <t>profile.jsp</t>
+  </si>
+  <si>
+    <t>login.js</t>
+  </si>
+  <si>
+    <t>new.js</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>profile.js</t>
+  </si>
+  <si>
+    <t>login.css</t>
+  </si>
+  <si>
+    <t>title.css</t>
+  </si>
+  <si>
+    <t>SlideServlet.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ManageDao.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Manage.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Slide.jsp</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>javascript</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Slide.js</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>slide.css</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>そばうどん</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -2015,11 +2159,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL47"/>
+  <dimension ref="A1:BL64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2042,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="28"/>
@@ -2050,7 +2194,7 @@
       <c r="F1" s="30"/>
       <c r="H1" s="28"/>
       <c r="I1" s="31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2061,7 +2205,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2072,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="97" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" s="98"/>
       <c r="E3" s="96">
@@ -2086,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="98"/>
       <c r="E4" s="4">
@@ -2413,23 +2557,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I6" s="35" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
@@ -2728,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="37"/>
@@ -2736,7 +2880,7 @@
       <c r="F8" s="69"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38" t="str">
-        <f t="shared" ref="H8:H44" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H61" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -2801,11 +2945,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" s="39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
@@ -2882,19 +3028,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="D10" s="39">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E10" s="70">
-        <f ca="1">F9</f>
-        <v>45096</v>
+        <f ca="1">プロジェクトの開始</f>
+        <v>45093</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45098</v>
+        <v>45095</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -2961,19 +3109,21 @@
     <row r="11" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="D11" s="39">
         <v>0.5</v>
       </c>
       <c r="E11" s="70">
-        <f ca="1">F10</f>
-        <v>45098</v>
+        <f ca="1">プロジェクトの開始</f>
+        <v>45093</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45102</v>
+        <v>45097</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3040,19 +3190,21 @@
     <row r="12" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="D12" s="39">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="70">
-        <f ca="1">F11</f>
-        <v>45102</v>
+        <f ca="1">プロジェクトの開始</f>
+        <v>45093</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45107</v>
+        <v>45098</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3118,9 +3270,15 @@
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0</v>
+      </c>
       <c r="E13" s="70"/>
       <c r="F13" s="70"/>
       <c r="G13" s="38"/>
@@ -3185,17 +3343,21 @@
     <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0.4</v>
+      </c>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45097</v>
+        <v>45094</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45099</v>
+        <v>45096</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3264,7 +3426,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="41"/>
@@ -3335,24 +3497,24 @@
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
       <c r="B16" s="23" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="42">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E16" s="73">
-        <f ca="1">E14+1</f>
-        <v>45098</v>
+        <f ca="1">E14-5</f>
+        <v>45089</v>
       </c>
       <c r="F16" s="73">
-        <f ca="1">E16+4</f>
-        <v>45102</v>
+        <f ca="1">E16+6</f>
+        <v>45095</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -3414,19 +3576,19 @@
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="23" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="73">
-        <f ca="1">E16+2</f>
-        <v>45100</v>
+        <f ca="1">E16+1</f>
+        <v>45090</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45105</v>
+        <v>45095</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3493,17 +3655,19 @@
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="23" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="42">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="73">
-        <f ca="1">F17</f>
-        <v>45105</v>
+        <f ca="1">E17</f>
+        <v>45090</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45108</v>
+        <v>45093</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3570,22 +3734,24 @@
     <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="23" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="42">
+        <v>0.05</v>
+      </c>
       <c r="E19" s="73">
-        <f ca="1">E18</f>
-        <v>45105</v>
+        <f ca="1">E18+4</f>
+        <v>45094</v>
       </c>
       <c r="F19" s="73">
-        <f ca="1">E19+2</f>
-        <v>45107</v>
+        <f ca="1">E19+4</f>
+        <v>45098</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -3647,22 +3813,24 @@
     <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="23" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="42"/>
+      <c r="D20" s="42">
+        <v>0</v>
+      </c>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="F20" s="73">
-        <f ca="1">E20+3</f>
-        <v>45108</v>
+        <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
+        <v>45096</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -3722,21 +3890,24 @@
       <c r="BL20" s="5"/>
     </row>
     <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="E21" s="73">
+        <f ca="1">E17</f>
+        <v>45090</v>
+      </c>
+      <c r="F21" s="73">
+        <f ca="1">E21+2</f>
+        <v>45092</v>
+      </c>
       <c r="G21" s="38"/>
-      <c r="H21" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H21" s="38"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -3796,24 +3967,23 @@
     </row>
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
-      <c r="B22" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="76">
-        <f ca="1">E9+15</f>
-        <v>45108</v>
-      </c>
-      <c r="F22" s="76">
-        <f ca="1">E22+5</f>
-        <v>45113</v>
+      <c r="B22" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="73">
+        <f ca="1">E21</f>
+        <v>45090</v>
+      </c>
+      <c r="F22" s="73">
+        <f t="shared" ca="1" si="6"/>
+        <v>45092</v>
       </c>
       <c r="G22" s="38"/>
-      <c r="H22" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
+      <c r="H22" s="38"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -3873,24 +4043,23 @@
     </row>
     <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
-      <c r="B23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="76">
-        <f ca="1">F22+1</f>
-        <v>45114</v>
-      </c>
-      <c r="F23" s="76">
-        <f ca="1">E23+4</f>
-        <v>45118</v>
+      <c r="B23" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="73">
+        <f ca="1">E17</f>
+        <v>45090</v>
+      </c>
+      <c r="F23" s="73">
+        <f ca="1">E23+3</f>
+        <v>45093</v>
       </c>
       <c r="G23" s="38"/>
-      <c r="H23" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H23" s="38"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -3950,24 +4119,23 @@
     </row>
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
-      <c r="B24" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="76">
-        <f ca="1">E23+5</f>
-        <v>45119</v>
-      </c>
-      <c r="F24" s="76">
-        <f ca="1">E24+5</f>
-        <v>45124</v>
+      <c r="B24" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="73">
+        <f ca="1">E18+4</f>
+        <v>45094</v>
+      </c>
+      <c r="F24" s="73">
+        <f ca="1">E24+3</f>
+        <v>45097</v>
       </c>
       <c r="G24" s="38"/>
-      <c r="H24" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
+      <c r="H24" s="38"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4027,24 +4195,23 @@
     </row>
     <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
-      <c r="B25" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="76">
-        <f ca="1">F24+1</f>
-        <v>45125</v>
-      </c>
-      <c r="F25" s="76">
-        <f ca="1">E25+4</f>
-        <v>45129</v>
+      <c r="B25" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="42">
+        <v>0</v>
+      </c>
+      <c r="E25" s="73">
+        <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
+        <v>45094</v>
+      </c>
+      <c r="F25" s="73">
+        <f t="shared" ref="F25:F26" ca="1" si="8">E25+3</f>
+        <v>45097</v>
       </c>
       <c r="G25" s="38"/>
-      <c r="H25" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H25" s="38"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -4104,24 +4271,23 @@
     </row>
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
-      <c r="B26" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="76">
-        <f ca="1">E24</f>
-        <v>45119</v>
-      </c>
-      <c r="F26" s="76">
-        <f ca="1">E26+4</f>
-        <v>45123</v>
+      <c r="B26" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="42">
+        <v>0</v>
+      </c>
+      <c r="E26" s="73">
+        <f t="shared" ca="1" si="7"/>
+        <v>45094</v>
+      </c>
+      <c r="F26" s="73">
+        <f t="shared" ca="1" si="8"/>
+        <v>45097</v>
       </c>
       <c r="G26" s="38"/>
-      <c r="H26" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H26" s="38"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -4180,21 +4346,24 @@
       <c r="BL26" s="5"/>
     </row>
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="E27" s="73">
+        <f t="shared" ca="1" si="7"/>
+        <v>45090</v>
+      </c>
+      <c r="F27" s="73">
+        <f ca="1">E27+6</f>
+        <v>45096</v>
+      </c>
       <c r="G27" s="38"/>
-      <c r="H27" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H27" s="38"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -4254,22 +4423,17 @@
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
-      <c r="B28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="79" t="s">
-        <v>26</v>
-      </c>
+      <c r="B28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="42">
+        <v>0</v>
+      </c>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="38"/>
-      <c r="H28" s="38" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H28" s="38"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -4328,22 +4492,20 @@
       <c r="BL28" s="5"/>
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="79" t="s">
-        <v>26</v>
-      </c>
+      <c r="A29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="38"/>
-      <c r="H29" s="38" t="e">
+      <c r="H29" s="38" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4404,21 +4566,27 @@
     </row>
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
-      <c r="B30" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="79" t="s">
-        <v>26</v>
+      <c r="B30" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="45">
+        <v>0</v>
+      </c>
+      <c r="E30" s="76">
+        <f ca="1">E9+M2223</f>
+        <v>45093</v>
+      </c>
+      <c r="F30" s="76">
+        <f ca="1">E30+5</f>
+        <v>45098</v>
       </c>
       <c r="G30" s="38"/>
-      <c r="H30" s="38" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="H30" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4479,21 +4647,27 @@
     </row>
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
-      <c r="B31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="79" t="s">
-        <v>26</v>
+      <c r="B31" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="E31" s="76">
+        <f ca="1">E30+M2323</f>
+        <v>45093</v>
+      </c>
+      <c r="F31" s="76">
+        <f ca="1">E31+4</f>
+        <v>45097</v>
       </c>
       <c r="G31" s="38"/>
-      <c r="H31" s="38" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="H31" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -4554,21 +4728,27 @@
     </row>
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
-      <c r="B32" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="79" t="s">
-        <v>26</v>
+      <c r="B32" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="E32" s="76">
+        <f ca="1">E31+M253</f>
+        <v>45093</v>
+      </c>
+      <c r="F32" s="76">
+        <f ca="1">E32+5</f>
+        <v>45098</v>
       </c>
       <c r="G32" s="38"/>
-      <c r="H32" s="38" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="H32" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4629,13 +4809,28 @@
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
+      <c r="B33" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="45">
+        <v>0</v>
+      </c>
+      <c r="E33" s="76">
+        <f ca="1">F32+1</f>
+        <v>45099</v>
+      </c>
+      <c r="F33" s="76">
+        <f ca="1">E33+4</f>
+        <v>45103</v>
+      </c>
       <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="H33" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -4694,20 +4889,28 @@
       <c r="BL33" s="5"/>
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="45">
+        <v>0</v>
+      </c>
+      <c r="E34" s="76">
+        <f ca="1">E30</f>
+        <v>45093</v>
+      </c>
+      <c r="F34" s="76">
+        <f ca="1">E34+4</f>
+        <v>45097</v>
+      </c>
       <c r="G34" s="38"/>
-      <c r="H34" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H34" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4768,21 +4971,17 @@
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
-      <c r="B35" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="90">
-        <v>0.2</v>
-      </c>
-      <c r="E35" s="91">
-        <v>45092</v>
-      </c>
-      <c r="F35" s="91">
-        <v>45099</v>
-      </c>
+      <c r="B35" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="45">
+        <v>0</v>
+      </c>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="5"/>
@@ -4844,20 +5043,22 @@
     </row>
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
-      <c r="B36" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="90">
-        <v>0.2</v>
-      </c>
-      <c r="E36" s="91">
-        <v>45092</v>
-      </c>
-      <c r="F36" s="91">
-        <v>45099</v>
+      <c r="B36" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="45">
+        <v>0</v>
+      </c>
+      <c r="E36" s="76">
+        <f ca="1">E32</f>
+        <v>45093</v>
+      </c>
+      <c r="F36" s="76">
+        <f ca="1">E36+4</f>
+        <v>45097</v>
       </c>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
@@ -4919,24 +5120,21 @@
       <c r="BL36" s="5"/>
     </row>
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="90">
-        <v>1</v>
-      </c>
-      <c r="E37" s="91">
-        <v>45092</v>
-      </c>
-      <c r="F37" s="91">
-        <v>45093</v>
-      </c>
+      <c r="A37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="78"/>
       <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="H37" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -4996,23 +5194,26 @@
     </row>
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
-      <c r="B38" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="90">
-        <v>1</v>
-      </c>
-      <c r="E38" s="91">
-        <v>45093</v>
-      </c>
-      <c r="F38" s="91">
-        <v>45093</v>
+      <c r="B38" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="E38" s="79">
+        <v>45092</v>
+      </c>
+      <c r="F38" s="79" t="s">
+        <v>21</v>
       </c>
       <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="H38" s="38" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5072,23 +5273,24 @@
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
-      <c r="B39" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="90">
-        <v>0.8</v>
-      </c>
-      <c r="E39" s="91">
-        <v>45093</v>
-      </c>
-      <c r="F39" s="91">
-        <v>45096</v>
+      <c r="B39" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="79" t="s">
+        <v>21</v>
       </c>
       <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="H39" s="38" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -5148,23 +5350,24 @@
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
-      <c r="B40" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="90">
-        <v>0.8</v>
-      </c>
-      <c r="E40" s="91">
-        <v>45093</v>
-      </c>
-      <c r="F40" s="91">
-        <v>45096</v>
+      <c r="B40" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="79" t="s">
+        <v>21</v>
       </c>
       <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="H40" s="38" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -5224,23 +5427,26 @@
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
-      <c r="B41" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="92" t="s">
+      <c r="B41" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="90">
-        <v>0.8</v>
-      </c>
-      <c r="E41" s="91">
-        <v>45097</v>
-      </c>
-      <c r="F41" s="91">
-        <v>45099</v>
+      <c r="D41" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="E41" s="79">
+        <v>45092</v>
+      </c>
+      <c r="F41" s="79" t="s">
+        <v>21</v>
       </c>
       <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="H41" s="38" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -5300,23 +5506,26 @@
     </row>
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
-      <c r="B42" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="90">
-        <v>0.8</v>
-      </c>
-      <c r="E42" s="91">
-        <v>45093</v>
-      </c>
-      <c r="F42" s="91">
-        <v>45100</v>
+      <c r="B42" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="48">
+        <v>1</v>
+      </c>
+      <c r="E42" s="79">
+        <v>45092</v>
+      </c>
+      <c r="F42" s="79">
+        <v>45092</v>
       </c>
       <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="H42" s="38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -5376,20 +5585,20 @@
     </row>
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
-      <c r="B43" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="90">
+      <c r="B43" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="48">
         <v>0.5</v>
       </c>
-      <c r="E43" s="91">
-        <v>45097</v>
-      </c>
-      <c r="F43" s="91">
-        <v>45100</v>
+      <c r="E43" s="79">
+        <v>45093</v>
+      </c>
+      <c r="F43" s="79">
+        <v>45096</v>
       </c>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
@@ -5451,87 +5660,1346 @@
       <c r="BL43" s="5"/>
     </row>
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52" t="str">
+      <c r="A44" s="8"/>
+      <c r="B44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="E44" s="79">
+        <v>45093</v>
+      </c>
+      <c r="F44" s="79">
+        <v>45096</v>
+      </c>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+    </row>
+    <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="E45" s="79">
+        <v>45093</v>
+      </c>
+      <c r="F45" s="79">
+        <v>45096</v>
+      </c>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+    </row>
+    <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="48"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
+      <c r="BF46" s="5"/>
+      <c r="BG46" s="5"/>
+      <c r="BH46" s="5"/>
+      <c r="BI46" s="5"/>
+      <c r="BJ46" s="5"/>
+      <c r="BK46" s="5"/>
+      <c r="BL46" s="5"/>
+    </row>
+    <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="8"/>
+      <c r="B47" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+      <c r="AS47" s="5"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
+      <c r="BA47" s="5"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="5"/>
+      <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
+      <c r="BF47" s="5"/>
+      <c r="BG47" s="5"/>
+      <c r="BH47" s="5"/>
+      <c r="BI47" s="5"/>
+      <c r="BJ47" s="5"/>
+      <c r="BK47" s="5"/>
+      <c r="BL47" s="5"/>
+    </row>
+    <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="8"/>
+      <c r="B48" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
+      <c r="BK48" s="5"/>
+      <c r="BL48" s="5"/>
+    </row>
+    <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="8"/>
+      <c r="B49" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="48"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
+      <c r="BK49" s="5"/>
+      <c r="BL49" s="5"/>
+    </row>
+    <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="8"/>
+      <c r="B50" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="48"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="5"/>
+      <c r="AV50" s="5"/>
+      <c r="AW50" s="5"/>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="5"/>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
+      <c r="BF50" s="5"/>
+      <c r="BG50" s="5"/>
+      <c r="BH50" s="5"/>
+      <c r="BI50" s="5"/>
+      <c r="BJ50" s="5"/>
+      <c r="BK50" s="5"/>
+      <c r="BL50" s="5"/>
+    </row>
+    <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="85"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
-      <c r="AJ44" s="7"/>
-      <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
-      <c r="AM44" s="7"/>
-      <c r="AN44" s="7"/>
-      <c r="AO44" s="7"/>
-      <c r="AP44" s="7"/>
-      <c r="AQ44" s="7"/>
-      <c r="AR44" s="7"/>
-      <c r="AS44" s="7"/>
-      <c r="AT44" s="7"/>
-      <c r="AU44" s="7"/>
-      <c r="AV44" s="7"/>
-      <c r="AW44" s="7"/>
-      <c r="AX44" s="7"/>
-      <c r="AY44" s="7"/>
-      <c r="AZ44" s="7"/>
-      <c r="BA44" s="7"/>
-      <c r="BB44" s="7"/>
-      <c r="BC44" s="7"/>
-      <c r="BD44" s="7"/>
-      <c r="BE44" s="7"/>
-      <c r="BF44" s="7"/>
-      <c r="BG44" s="7"/>
-      <c r="BH44" s="7"/>
-      <c r="BI44" s="7"/>
-      <c r="BJ44" s="7"/>
-      <c r="BK44" s="7"/>
-      <c r="BL44" s="7"/>
-    </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="53"/>
-      <c r="F46" s="54"/>
-    </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="55"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="5"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="5"/>
+      <c r="AV51" s="5"/>
+      <c r="AW51" s="5"/>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="5"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="5"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
+      <c r="BF51" s="5"/>
+      <c r="BG51" s="5"/>
+      <c r="BH51" s="5"/>
+      <c r="BI51" s="5"/>
+      <c r="BJ51" s="5"/>
+      <c r="BK51" s="5"/>
+      <c r="BL51" s="5"/>
+    </row>
+    <row r="52" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8"/>
+      <c r="B52" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="E52" s="91">
+        <v>45092</v>
+      </c>
+      <c r="F52" s="91">
+        <v>45099</v>
+      </c>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="5"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+    </row>
+    <row r="53" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="8"/>
+      <c r="B53" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="E53" s="91">
+        <v>45092</v>
+      </c>
+      <c r="F53" s="91">
+        <v>45099</v>
+      </c>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
+      <c r="BF53" s="5"/>
+      <c r="BG53" s="5"/>
+      <c r="BH53" s="5"/>
+      <c r="BI53" s="5"/>
+      <c r="BJ53" s="5"/>
+      <c r="BK53" s="5"/>
+      <c r="BL53" s="5"/>
+    </row>
+    <row r="54" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="8"/>
+      <c r="B54" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="90">
+        <v>1</v>
+      </c>
+      <c r="E54" s="91">
+        <v>45092</v>
+      </c>
+      <c r="F54" s="91">
+        <v>45093</v>
+      </c>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="5"/>
+      <c r="BI54" s="5"/>
+      <c r="BJ54" s="5"/>
+      <c r="BK54" s="5"/>
+      <c r="BL54" s="5"/>
+    </row>
+    <row r="55" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="8"/>
+      <c r="B55" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="90">
+        <v>1</v>
+      </c>
+      <c r="E55" s="91">
+        <v>45093</v>
+      </c>
+      <c r="F55" s="91">
+        <v>45093</v>
+      </c>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="5"/>
+      <c r="AS55" s="5"/>
+      <c r="AT55" s="5"/>
+      <c r="AU55" s="5"/>
+      <c r="AV55" s="5"/>
+      <c r="AW55" s="5"/>
+      <c r="AX55" s="5"/>
+      <c r="AY55" s="5"/>
+      <c r="AZ55" s="5"/>
+      <c r="BA55" s="5"/>
+      <c r="BB55" s="5"/>
+      <c r="BC55" s="5"/>
+      <c r="BD55" s="5"/>
+      <c r="BE55" s="5"/>
+      <c r="BF55" s="5"/>
+      <c r="BG55" s="5"/>
+      <c r="BH55" s="5"/>
+      <c r="BI55" s="5"/>
+      <c r="BJ55" s="5"/>
+      <c r="BK55" s="5"/>
+      <c r="BL55" s="5"/>
+    </row>
+    <row r="56" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="8"/>
+      <c r="B56" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="90">
+        <v>0.8</v>
+      </c>
+      <c r="E56" s="91">
+        <v>45093</v>
+      </c>
+      <c r="F56" s="91">
+        <v>45096</v>
+      </c>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="5"/>
+      <c r="AS56" s="5"/>
+      <c r="AT56" s="5"/>
+      <c r="AU56" s="5"/>
+      <c r="AV56" s="5"/>
+      <c r="AW56" s="5"/>
+      <c r="AX56" s="5"/>
+      <c r="AY56" s="5"/>
+      <c r="AZ56" s="5"/>
+      <c r="BA56" s="5"/>
+      <c r="BB56" s="5"/>
+      <c r="BC56" s="5"/>
+      <c r="BD56" s="5"/>
+      <c r="BE56" s="5"/>
+      <c r="BF56" s="5"/>
+      <c r="BG56" s="5"/>
+      <c r="BH56" s="5"/>
+      <c r="BI56" s="5"/>
+      <c r="BJ56" s="5"/>
+      <c r="BK56" s="5"/>
+      <c r="BL56" s="5"/>
+    </row>
+    <row r="57" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8"/>
+      <c r="B57" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="90">
+        <v>0.8</v>
+      </c>
+      <c r="E57" s="91">
+        <v>45093</v>
+      </c>
+      <c r="F57" s="91">
+        <v>45096</v>
+      </c>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5"/>
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="5"/>
+      <c r="AR57" s="5"/>
+      <c r="AS57" s="5"/>
+      <c r="AT57" s="5"/>
+      <c r="AU57" s="5"/>
+      <c r="AV57" s="5"/>
+      <c r="AW57" s="5"/>
+      <c r="AX57" s="5"/>
+      <c r="AY57" s="5"/>
+      <c r="AZ57" s="5"/>
+      <c r="BA57" s="5"/>
+      <c r="BB57" s="5"/>
+      <c r="BC57" s="5"/>
+      <c r="BD57" s="5"/>
+      <c r="BE57" s="5"/>
+      <c r="BF57" s="5"/>
+      <c r="BG57" s="5"/>
+      <c r="BH57" s="5"/>
+      <c r="BI57" s="5"/>
+      <c r="BJ57" s="5"/>
+      <c r="BK57" s="5"/>
+      <c r="BL57" s="5"/>
+    </row>
+    <row r="58" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="8"/>
+      <c r="B58" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="90">
+        <v>0.8</v>
+      </c>
+      <c r="E58" s="91">
+        <v>45097</v>
+      </c>
+      <c r="F58" s="91">
+        <v>45099</v>
+      </c>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="5"/>
+      <c r="AS58" s="5"/>
+      <c r="AT58" s="5"/>
+      <c r="AU58" s="5"/>
+      <c r="AV58" s="5"/>
+      <c r="AW58" s="5"/>
+      <c r="AX58" s="5"/>
+      <c r="AY58" s="5"/>
+      <c r="AZ58" s="5"/>
+      <c r="BA58" s="5"/>
+      <c r="BB58" s="5"/>
+      <c r="BC58" s="5"/>
+      <c r="BD58" s="5"/>
+      <c r="BE58" s="5"/>
+      <c r="BF58" s="5"/>
+      <c r="BG58" s="5"/>
+      <c r="BH58" s="5"/>
+      <c r="BI58" s="5"/>
+      <c r="BJ58" s="5"/>
+      <c r="BK58" s="5"/>
+      <c r="BL58" s="5"/>
+    </row>
+    <row r="59" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8"/>
+      <c r="B59" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="90">
+        <v>0.8</v>
+      </c>
+      <c r="E59" s="91">
+        <v>45093</v>
+      </c>
+      <c r="F59" s="91">
+        <v>45100</v>
+      </c>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
+      <c r="AQ59" s="5"/>
+      <c r="AR59" s="5"/>
+      <c r="AS59" s="5"/>
+      <c r="AT59" s="5"/>
+      <c r="AU59" s="5"/>
+      <c r="AV59" s="5"/>
+      <c r="AW59" s="5"/>
+      <c r="AX59" s="5"/>
+      <c r="AY59" s="5"/>
+      <c r="AZ59" s="5"/>
+      <c r="BA59" s="5"/>
+      <c r="BB59" s="5"/>
+      <c r="BC59" s="5"/>
+      <c r="BD59" s="5"/>
+      <c r="BE59" s="5"/>
+      <c r="BF59" s="5"/>
+      <c r="BG59" s="5"/>
+      <c r="BH59" s="5"/>
+      <c r="BI59" s="5"/>
+      <c r="BJ59" s="5"/>
+      <c r="BK59" s="5"/>
+      <c r="BL59" s="5"/>
+    </row>
+    <row r="60" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="8"/>
+      <c r="B60" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="91">
+        <v>45097</v>
+      </c>
+      <c r="F60" s="91">
+        <v>45100</v>
+      </c>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="5"/>
+      <c r="AS60" s="5"/>
+      <c r="AT60" s="5"/>
+      <c r="AU60" s="5"/>
+      <c r="AV60" s="5"/>
+      <c r="AW60" s="5"/>
+      <c r="AX60" s="5"/>
+      <c r="AY60" s="5"/>
+      <c r="AZ60" s="5"/>
+      <c r="BA60" s="5"/>
+      <c r="BB60" s="5"/>
+      <c r="BC60" s="5"/>
+      <c r="BD60" s="5"/>
+      <c r="BE60" s="5"/>
+      <c r="BF60" s="5"/>
+      <c r="BG60" s="5"/>
+      <c r="BH60" s="5"/>
+      <c r="BI60" s="5"/>
+      <c r="BJ60" s="5"/>
+      <c r="BK60" s="5"/>
+      <c r="BL60" s="5"/>
+    </row>
+    <row r="61" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="50"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="7"/>
+      <c r="AU61" s="7"/>
+      <c r="AV61" s="7"/>
+      <c r="AW61" s="7"/>
+      <c r="AX61" s="7"/>
+      <c r="AY61" s="7"/>
+      <c r="AZ61" s="7"/>
+      <c r="BA61" s="7"/>
+      <c r="BB61" s="7"/>
+      <c r="BC61" s="7"/>
+      <c r="BD61" s="7"/>
+      <c r="BE61" s="7"/>
+      <c r="BF61" s="7"/>
+      <c r="BG61" s="7"/>
+      <c r="BH61" s="7"/>
+      <c r="BI61" s="7"/>
+      <c r="BJ61" s="7"/>
+      <c r="BK61" s="7"/>
+      <c r="BL61" s="7"/>
+    </row>
+    <row r="62" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="53"/>
+      <c r="F63" s="54"/>
+    </row>
+    <row r="64" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5548,8 +7016,8 @@
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D44">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D7:D8 D51:D61 D37 D29">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5562,17 +7030,87 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL44">
-    <cfRule type="expression" dxfId="2" priority="33">
+  <conditionalFormatting sqref="I5:BL61">
+    <cfRule type="expression" dxfId="2" priority="38">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL44">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I7:BL61">
+    <cfRule type="expression" dxfId="1" priority="32">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="33" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D50">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C257527E-7D38-4E5D-80D0-E9605BF25D80}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D33 D35:D36">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0CE0120B-633D-4593-9995-6FB3C6038B6E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1F456CFE-0334-4389-93D6-2CA3034C9FC7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D28">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{14A0670C-A51C-4F32-AB4A-D8097C78202F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D14">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6D006A46-9D82-4630-A8FD-8329AA6F638B}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5591,11 +7129,8 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="43" max="16383" man="1"/>
+    <brk id="60" max="16383" man="1"/>
   </rowBreaks>
-  <ignoredErrors>
-    <ignoredError sqref="F19 F23:F24 E24" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5612,7 +7147,82 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D44</xm:sqref>
+          <xm:sqref>D7:D8 D51:D61 D37 D29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C257527E-7D38-4E5D-80D0-E9605BF25D80}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D38:D50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0CE0120B-633D-4593-9995-6FB3C6038B6E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D30:D33 D35:D36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1F456CFE-0334-4389-93D6-2CA3034C9FC7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{14A0670C-A51C-4F32-AB4A-D8097C78202F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D15:D28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6D006A46-9D82-4630-A8FD-8329AA6F638B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D9:D14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5637,79 +7247,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" s="59" customFormat="1" ht="16" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="61"/>
     </row>
     <row r="4" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="63" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="56" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="66" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="63" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="56" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="67" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="63" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="56" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="67" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="63" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5730,26 +7340,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5758,7 +7348,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6046,19 +7636,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6066,7 +7664,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6085,4 +7683,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E56A14-01D0-4326-8911-29B530FC86A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE0E6AD-4DB4-4A83-B91A-416D4C4AC46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1534,6 +1534,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1545,12 +1551,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2162,8 +2162,8 @@
   <dimension ref="A1:BL64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2215,107 +2215,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
-        <v>45093</v>
-      </c>
-      <c r="F3" s="96"/>
+        <v>45096</v>
+      </c>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
-        <v>45089</v>
-      </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+        <v>45096</v>
+      </c>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
-        <v>45096</v>
-      </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+        <v>45103</v>
+      </c>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
-        <v>45103</v>
-      </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+        <v>45110</v>
+      </c>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
-        <v>45110</v>
-      </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+        <v>45117</v>
+      </c>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
-        <v>45117</v>
-      </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+        <v>45124</v>
+      </c>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
-        <v>45124</v>
-      </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+        <v>45131</v>
+      </c>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
-        <v>45131</v>
-      </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+        <v>45138</v>
+      </c>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
-        <v>45138</v>
-      </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+        <v>45145</v>
+      </c>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2329,227 +2329,227 @@
       <c r="G5" s="26"/>
       <c r="I5" s="82">
         <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="J5" s="83">
         <f ca="1">I5+1</f>
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="K5" s="83">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="L5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="M5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="N5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="O5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="P5" s="82">
         <f ca="1">O5+1</f>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="Q5" s="83">
         <f ca="1">P5+1</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="R5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="S5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="T5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="U5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="W5" s="82">
         <f ca="1">V5+1</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="X5" s="83">
         <f ca="1">W5+1</f>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="Z5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="AA5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="AB5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="AD5" s="82">
         <f ca="1">AC5+1</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="AE5" s="83">
         <f ca="1">AD5+1</f>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="AF5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="AG5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AH5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AI5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AJ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AK5" s="82">
         <f ca="1">AJ5+1</f>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AL5" s="83">
         <f ca="1">AK5+1</f>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AM5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AN5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AO5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AP5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AQ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="AR5" s="82">
         <f ca="1">AQ5+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="AS5" s="83">
         <f ca="1">AR5+1</f>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="AT5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="AU5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="AV5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="AW5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="AX5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="AY5" s="82">
         <f ca="1">AX5+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="AZ5" s="83">
         <f ca="1">AY5+1</f>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="BA5" s="83">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="BB5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="BC5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="BD5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="BE5" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>45137</v>
+        <v>45144</v>
       </c>
       <c r="BF5" s="82">
         <f ca="1">BE5+1</f>
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="BG5" s="83">
         <f ca="1">BF5+1</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="BH5" s="83">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45140</v>
+        <v>45147</v>
       </c>
       <c r="BI5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45141</v>
+        <v>45148</v>
       </c>
       <c r="BJ5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="BK5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="BL5" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>45144</v>
+        <v>45151</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2951,15 +2951,15 @@
         <v>98</v>
       </c>
       <c r="D9" s="39">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -3034,15 +3034,15 @@
         <v>99</v>
       </c>
       <c r="D10" s="39">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E10" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3115,15 +3115,15 @@
         <v>100</v>
       </c>
       <c r="D11" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3200,11 +3200,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3353,11 +3353,11 @@
       </c>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3505,11 +3505,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14-5</f>
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+6</f>
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+1</f>
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3663,11 +3663,11 @@
       </c>
       <c r="E18" s="73">
         <f ca="1">E17</f>
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3742,11 +3742,11 @@
       </c>
       <c r="E19" s="73">
         <f ca="1">E18+4</f>
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+4</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3821,11 +3821,11 @@
       </c>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="F20" s="73">
         <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3900,11 +3900,11 @@
       </c>
       <c r="E21" s="73">
         <f ca="1">E17</f>
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="F21" s="73">
         <f ca="1">E21+2</f>
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
@@ -3976,11 +3976,11 @@
       </c>
       <c r="E22" s="73">
         <f ca="1">E21</f>
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="F22" s="73">
         <f t="shared" ca="1" si="6"/>
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
@@ -4052,11 +4052,11 @@
       </c>
       <c r="E23" s="73">
         <f ca="1">E17</f>
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="F23" s="73">
         <f ca="1">E23+3</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
@@ -4128,11 +4128,11 @@
       </c>
       <c r="E24" s="73">
         <f ca="1">E18+4</f>
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="F24" s="73">
         <f ca="1">E24+3</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
@@ -4200,15 +4200,15 @@
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="73">
         <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="F25" s="73">
         <f t="shared" ref="F25:F26" ca="1" si="8">E25+3</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
@@ -4280,11 +4280,11 @@
       </c>
       <c r="E26" s="73">
         <f t="shared" ca="1" si="7"/>
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="F26" s="73">
         <f t="shared" ca="1" si="8"/>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
@@ -4352,15 +4352,15 @@
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="42">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E27" s="73">
         <f t="shared" ca="1" si="7"/>
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="F27" s="73">
         <f ca="1">E27+6</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="42">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
@@ -4573,15 +4573,15 @@
         <v>78</v>
       </c>
       <c r="D30" s="45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="76">
         <f ca="1">E9+M2223</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F30" s="76">
         <f ca="1">E30+5</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38">
@@ -4654,15 +4654,15 @@
         <v>79</v>
       </c>
       <c r="D31" s="45">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E31" s="76">
         <f ca="1">E30+M2323</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F31" s="76">
         <f ca="1">E31+4</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="38">
@@ -4735,15 +4735,15 @@
         <v>80</v>
       </c>
       <c r="D32" s="45">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E32" s="76">
         <f ca="1">E31+M253</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F32" s="76">
         <f ca="1">E32+5</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="38">
@@ -4816,15 +4816,15 @@
         <v>81</v>
       </c>
       <c r="D33" s="45">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E33" s="76">
         <f ca="1">F32+1</f>
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="F33" s="76">
         <f ca="1">E33+4</f>
-        <v>45103</v>
+        <v>45106</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38">
@@ -4901,11 +4901,11 @@
       </c>
       <c r="E34" s="76">
         <f ca="1">E30</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F34" s="76">
         <f ca="1">E34+4</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38">
@@ -5054,11 +5054,11 @@
       </c>
       <c r="E36" s="76">
         <f ca="1">E32</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F36" s="76">
         <f ca="1">E36+4</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
@@ -5279,7 +5279,9 @@
       <c r="C39" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="48"/>
+      <c r="D39" s="48">
+        <v>0.2</v>
+      </c>
       <c r="E39" s="79" t="s">
         <v>21</v>
       </c>
@@ -5356,7 +5358,9 @@
       <c r="C40" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="48"/>
+      <c r="D40" s="48">
+        <v>0.2</v>
+      </c>
       <c r="E40" s="79" t="s">
         <v>21</v>
       </c>
@@ -5434,7 +5438,7 @@
         <v>66</v>
       </c>
       <c r="D41" s="48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E41" s="79">
         <v>45092</v>
@@ -5668,7 +5672,7 @@
         <v>70</v>
       </c>
       <c r="D44" s="48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E44" s="79">
         <v>45093</v>
@@ -5744,7 +5748,7 @@
         <v>71</v>
       </c>
       <c r="D45" s="48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E45" s="79">
         <v>45093</v>
@@ -7003,21 +7007,21 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D8 D51:D61 D37 D29">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7031,20 +7035,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL61">
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL61">
-    <cfRule type="expression" dxfId="1" priority="32">
+    <cfRule type="expression" dxfId="1" priority="37">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="38" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="D46:D50">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7057,8 +7061,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D33 D35:D36">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="D35:D36">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7072,7 +7076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7085,8 +7089,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D28">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7099,7 +7103,49 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D28">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{042AEC11-178D-45BB-A9C4-EC537ED769DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AAE4166E-82B4-4174-A647-3EEFFF8744B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D45">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2DE7F674-B42C-42D4-8FA8-DBB04B14DC93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D33">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7108,7 +7154,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6D006A46-9D82-4630-A8FD-8329AA6F638B}</x14:id>
+          <x14:id>{8B03A825-1372-4A57-AD02-CBCD91A144AE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7162,7 +7208,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38:D50</xm:sqref>
+          <xm:sqref>D46:D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0CE0120B-633D-4593-9995-6FB3C6038B6E}">
@@ -7177,7 +7223,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30:D33 D35:D36</xm:sqref>
+          <xm:sqref>D35:D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1F456CFE-0334-4389-93D6-2CA3034C9FC7}">
@@ -7207,10 +7253,25 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15:D28</xm:sqref>
+          <xm:sqref>D15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6D006A46-9D82-4630-A8FD-8329AA6F638B}">
+          <x14:cfRule type="dataBar" id="{042AEC11-178D-45BB-A9C4-EC537ED769DB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AAE4166E-82B4-4174-A647-3EEFFF8744B9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7223,6 +7284,36 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D9:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2DE7F674-B42C-42D4-8FA8-DBB04B14DC93}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D38:D45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8B03A825-1372-4A57-AD02-CBCD91A144AE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D30:D33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7340,12 +7431,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7637,29 +7739,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7686,13 +7781,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE0E6AD-4DB4-4A83-B91A-416D4C4AC46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5CB3C0-A450-4BC2-B471-E48D4F6322F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1534,23 +1534,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2163,7 +2163,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2215,107 +2215,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
-        <v>45096</v>
-      </c>
-      <c r="F3" s="98"/>
+        <v>45098</v>
+      </c>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2955,11 +2955,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45099</v>
+        <v>45101</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3119,11 +3119,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3200,11 +3200,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3353,11 +3353,11 @@
       </c>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45099</v>
+        <v>45101</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3505,11 +3505,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14-5</f>
-        <v>45092</v>
+        <v>45094</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+6</f>
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+1</f>
-        <v>45093</v>
+        <v>45095</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3663,11 +3663,11 @@
       </c>
       <c r="E18" s="73">
         <f ca="1">E17</f>
-        <v>45093</v>
+        <v>45095</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3742,11 +3742,11 @@
       </c>
       <c r="E19" s="73">
         <f ca="1">E18+4</f>
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+4</f>
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3821,11 +3821,11 @@
       </c>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="F20" s="73">
         <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45099</v>
+        <v>45101</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3900,11 +3900,11 @@
       </c>
       <c r="E21" s="73">
         <f ca="1">E17</f>
-        <v>45093</v>
+        <v>45095</v>
       </c>
       <c r="F21" s="73">
         <f ca="1">E21+2</f>
-        <v>45095</v>
+        <v>45097</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
@@ -3976,11 +3976,11 @@
       </c>
       <c r="E22" s="73">
         <f ca="1">E21</f>
-        <v>45093</v>
+        <v>45095</v>
       </c>
       <c r="F22" s="73">
         <f t="shared" ca="1" si="6"/>
-        <v>45095</v>
+        <v>45097</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
@@ -4052,11 +4052,11 @@
       </c>
       <c r="E23" s="73">
         <f ca="1">E17</f>
-        <v>45093</v>
+        <v>45095</v>
       </c>
       <c r="F23" s="73">
         <f ca="1">E23+3</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
@@ -4128,11 +4128,11 @@
       </c>
       <c r="E24" s="73">
         <f ca="1">E18+4</f>
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="F24" s="73">
         <f ca="1">E24+3</f>
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
@@ -4204,11 +4204,11 @@
       </c>
       <c r="E25" s="73">
         <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="F25" s="73">
         <f t="shared" ref="F25:F26" ca="1" si="8">E25+3</f>
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
@@ -4280,11 +4280,11 @@
       </c>
       <c r="E26" s="73">
         <f t="shared" ca="1" si="7"/>
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="F26" s="73">
         <f t="shared" ca="1" si="8"/>
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
@@ -4356,11 +4356,11 @@
       </c>
       <c r="E27" s="73">
         <f t="shared" ca="1" si="7"/>
-        <v>45093</v>
+        <v>45095</v>
       </c>
       <c r="F27" s="73">
         <f ca="1">E27+6</f>
-        <v>45099</v>
+        <v>45101</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
@@ -4577,11 +4577,11 @@
       </c>
       <c r="E30" s="76">
         <f ca="1">E9+M2223</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F30" s="76">
         <f ca="1">E30+5</f>
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38">
@@ -4658,11 +4658,11 @@
       </c>
       <c r="E31" s="76">
         <f ca="1">E30+M2323</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F31" s="76">
         <f ca="1">E31+4</f>
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="38">
@@ -4739,11 +4739,11 @@
       </c>
       <c r="E32" s="76">
         <f ca="1">E31+M253</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F32" s="76">
         <f ca="1">E32+5</f>
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="38">
@@ -4820,11 +4820,11 @@
       </c>
       <c r="E33" s="76">
         <f ca="1">F32+1</f>
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="F33" s="76">
         <f ca="1">E33+4</f>
-        <v>45106</v>
+        <v>45108</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38">
@@ -4901,11 +4901,11 @@
       </c>
       <c r="E34" s="76">
         <f ca="1">E30</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F34" s="76">
         <f ca="1">E34+4</f>
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38">
@@ -5054,11 +5054,11 @@
       </c>
       <c r="E36" s="76">
         <f ca="1">E32</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F36" s="76">
         <f ca="1">E36+4</f>
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
@@ -6247,7 +6247,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="90">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E52" s="91">
         <v>45092</v>
@@ -6323,7 +6323,7 @@
         <v>46</v>
       </c>
       <c r="D53" s="90">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E53" s="91">
         <v>45092</v>
@@ -7007,17 +7007,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D8 D51:D61 D37 D29">
@@ -7431,23 +7431,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7739,22 +7728,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7781,9 +7777,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5CB3C0-A450-4BC2-B471-E48D4F6322F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38722055-6395-4239-95C6-07A69B2BEF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1534,6 +1534,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1545,12 +1551,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2163,7 +2163,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56:D59"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2215,107 +2215,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
         <v>45098</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -6247,7 +6247,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="90">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E52" s="91">
         <v>45092</v>
@@ -6323,7 +6323,7 @@
         <v>46</v>
       </c>
       <c r="D53" s="90">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="91">
         <v>45092</v>
@@ -6551,7 +6551,7 @@
         <v>59</v>
       </c>
       <c r="D56" s="90">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E56" s="91">
         <v>45093</v>
@@ -6703,7 +6703,7 @@
         <v>60</v>
       </c>
       <c r="D58" s="90">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E58" s="91">
         <v>45097</v>
@@ -7007,17 +7007,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D8 D51:D61 D37 D29">
@@ -7431,12 +7431,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7728,29 +7739,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7777,13 +7781,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38722055-6395-4239-95C6-07A69B2BEF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013BB5B9-DF69-494A-9D00-8A4EBB82BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1534,23 +1534,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2163,7 +2163,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2215,107 +2215,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
-        <v>45098</v>
-      </c>
-      <c r="F3" s="98"/>
+        <v>45099</v>
+      </c>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2955,11 +2955,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3119,11 +3119,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3200,11 +3200,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3353,11 +3353,11 @@
       </c>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3505,11 +3505,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14-5</f>
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+6</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+1</f>
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3663,11 +3663,11 @@
       </c>
       <c r="E18" s="73">
         <f ca="1">E17</f>
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3742,11 +3742,11 @@
       </c>
       <c r="E19" s="73">
         <f ca="1">E18+4</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+4</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3821,11 +3821,11 @@
       </c>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F20" s="73">
         <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3900,11 +3900,11 @@
       </c>
       <c r="E21" s="73">
         <f ca="1">E17</f>
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="F21" s="73">
         <f ca="1">E21+2</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
@@ -3976,11 +3976,11 @@
       </c>
       <c r="E22" s="73">
         <f ca="1">E21</f>
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="F22" s="73">
         <f t="shared" ca="1" si="6"/>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
@@ -4052,11 +4052,11 @@
       </c>
       <c r="E23" s="73">
         <f ca="1">E17</f>
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="F23" s="73">
         <f ca="1">E23+3</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
@@ -4128,11 +4128,11 @@
       </c>
       <c r="E24" s="73">
         <f ca="1">E18+4</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F24" s="73">
         <f ca="1">E24+3</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
@@ -4204,11 +4204,11 @@
       </c>
       <c r="E25" s="73">
         <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F25" s="73">
         <f t="shared" ref="F25:F26" ca="1" si="8">E25+3</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
@@ -4280,11 +4280,11 @@
       </c>
       <c r="E26" s="73">
         <f t="shared" ca="1" si="7"/>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F26" s="73">
         <f t="shared" ca="1" si="8"/>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
@@ -4356,11 +4356,11 @@
       </c>
       <c r="E27" s="73">
         <f t="shared" ca="1" si="7"/>
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="F27" s="73">
         <f ca="1">E27+6</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
@@ -4577,11 +4577,11 @@
       </c>
       <c r="E30" s="76">
         <f ca="1">E9+M2223</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F30" s="76">
         <f ca="1">E30+5</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38">
@@ -4658,11 +4658,11 @@
       </c>
       <c r="E31" s="76">
         <f ca="1">E30+M2323</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F31" s="76">
         <f ca="1">E31+4</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="38">
@@ -4739,11 +4739,11 @@
       </c>
       <c r="E32" s="76">
         <f ca="1">E31+M253</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F32" s="76">
         <f ca="1">E32+5</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="38">
@@ -4820,11 +4820,11 @@
       </c>
       <c r="E33" s="76">
         <f ca="1">F32+1</f>
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="F33" s="76">
         <f ca="1">E33+4</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38">
@@ -4901,11 +4901,11 @@
       </c>
       <c r="E34" s="76">
         <f ca="1">E30</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F34" s="76">
         <f ca="1">E34+4</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38">
@@ -5054,11 +5054,11 @@
       </c>
       <c r="E36" s="76">
         <f ca="1">E32</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F36" s="76">
         <f ca="1">E36+4</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
@@ -6247,7 +6247,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="90">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E52" s="91">
         <v>45092</v>
@@ -6323,7 +6323,7 @@
         <v>46</v>
       </c>
       <c r="D53" s="90">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E53" s="91">
         <v>45092</v>
@@ -6551,7 +6551,7 @@
         <v>59</v>
       </c>
       <c r="D56" s="90">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E56" s="91">
         <v>45093</v>
@@ -6703,7 +6703,7 @@
         <v>60</v>
       </c>
       <c r="D58" s="90">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E58" s="91">
         <v>45097</v>
@@ -6855,7 +6855,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="90">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E60" s="91">
         <v>45097</v>
@@ -7007,17 +7007,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D8 D51:D61 D37 D29">
@@ -7431,23 +7431,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7739,22 +7728,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7781,9 +7777,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/西村ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013BB5B9-DF69-494A-9D00-8A4EBB82BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B920D860-4BAC-41BE-A65A-CD4D703ACD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1534,6 +1534,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1545,12 +1551,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2163,7 +2163,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2215,107 +2215,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
-        <v>45099</v>
-      </c>
-      <c r="F3" s="96"/>
+        <v>45104</v>
+      </c>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
-        <v>45096</v>
-      </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+        <v>45103</v>
+      </c>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
-        <v>45103</v>
-      </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+        <v>45110</v>
+      </c>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
-        <v>45110</v>
-      </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+        <v>45117</v>
+      </c>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
-        <v>45117</v>
-      </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+        <v>45124</v>
+      </c>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
-        <v>45124</v>
-      </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+        <v>45131</v>
+      </c>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
-        <v>45131</v>
-      </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+        <v>45138</v>
+      </c>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
-        <v>45138</v>
-      </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+        <v>45145</v>
+      </c>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
-        <v>45145</v>
-      </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+        <v>45152</v>
+      </c>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2329,227 +2329,227 @@
       <c r="G5" s="26"/>
       <c r="I5" s="82">
         <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="J5" s="83">
         <f ca="1">I5+1</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="K5" s="83">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="L5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="M5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="N5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="O5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="P5" s="82">
         <f ca="1">O5+1</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="Q5" s="83">
         <f ca="1">P5+1</f>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="R5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="S5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="T5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="U5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="W5" s="82">
         <f ca="1">V5+1</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="X5" s="83">
         <f ca="1">W5+1</f>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="Z5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AA5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AB5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AD5" s="82">
         <f ca="1">AC5+1</f>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AE5" s="83">
         <f ca="1">AD5+1</f>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AF5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AG5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AH5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AI5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AJ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="AK5" s="82">
         <f ca="1">AJ5+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="AL5" s="83">
         <f ca="1">AK5+1</f>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="AM5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="AN5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="AO5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="AP5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="AQ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="AR5" s="82">
         <f ca="1">AQ5+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="AS5" s="83">
         <f ca="1">AR5+1</f>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="AT5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="AU5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="AV5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="AW5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="AX5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45137</v>
+        <v>45144</v>
       </c>
       <c r="AY5" s="82">
         <f ca="1">AX5+1</f>
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="AZ5" s="83">
         <f ca="1">AY5+1</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="BA5" s="83">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45140</v>
+        <v>45147</v>
       </c>
       <c r="BB5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45141</v>
+        <v>45148</v>
       </c>
       <c r="BC5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="BD5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="BE5" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>45144</v>
+        <v>45151</v>
       </c>
       <c r="BF5" s="82">
         <f ca="1">BE5+1</f>
-        <v>45145</v>
+        <v>45152</v>
       </c>
       <c r="BG5" s="83">
         <f ca="1">BF5+1</f>
-        <v>45146</v>
+        <v>45153</v>
       </c>
       <c r="BH5" s="83">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45147</v>
+        <v>45154</v>
       </c>
       <c r="BI5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45148</v>
+        <v>45155</v>
       </c>
       <c r="BJ5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="BK5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="BL5" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>45151</v>
+        <v>45158</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2955,11 +2955,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45102</v>
+        <v>45107</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3119,11 +3119,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3200,11 +3200,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45104</v>
+        <v>45109</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3353,11 +3353,11 @@
       </c>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45102</v>
+        <v>45107</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3505,11 +3505,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14-5</f>
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+6</f>
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+1</f>
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3663,11 +3663,11 @@
       </c>
       <c r="E18" s="73">
         <f ca="1">E17</f>
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3742,11 +3742,11 @@
       </c>
       <c r="E19" s="73">
         <f ca="1">E18+4</f>
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+4</f>
-        <v>45104</v>
+        <v>45109</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3821,11 +3821,11 @@
       </c>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="F20" s="73">
         <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45102</v>
+        <v>45107</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3900,11 +3900,11 @@
       </c>
       <c r="E21" s="73">
         <f ca="1">E17</f>
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="F21" s="73">
         <f ca="1">E21+2</f>
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
@@ -3976,11 +3976,11 @@
       </c>
       <c r="E22" s="73">
         <f ca="1">E21</f>
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="F22" s="73">
         <f t="shared" ca="1" si="6"/>
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
@@ -4052,11 +4052,11 @@
       </c>
       <c r="E23" s="73">
         <f ca="1">E17</f>
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="F23" s="73">
         <f ca="1">E23+3</f>
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
@@ -4128,11 +4128,11 @@
       </c>
       <c r="E24" s="73">
         <f ca="1">E18+4</f>
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="F24" s="73">
         <f ca="1">E24+3</f>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
@@ -4204,11 +4204,11 @@
       </c>
       <c r="E25" s="73">
         <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="F25" s="73">
         <f t="shared" ref="F25:F26" ca="1" si="8">E25+3</f>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
@@ -4280,11 +4280,11 @@
       </c>
       <c r="E26" s="73">
         <f t="shared" ca="1" si="7"/>
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="F26" s="73">
         <f t="shared" ca="1" si="8"/>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
@@ -4356,11 +4356,11 @@
       </c>
       <c r="E27" s="73">
         <f t="shared" ca="1" si="7"/>
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="F27" s="73">
         <f ca="1">E27+6</f>
-        <v>45102</v>
+        <v>45107</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
@@ -4577,11 +4577,11 @@
       </c>
       <c r="E30" s="76">
         <f ca="1">E9+M2223</f>
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="F30" s="76">
         <f ca="1">E30+5</f>
-        <v>45104</v>
+        <v>45109</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38">
@@ -4658,11 +4658,11 @@
       </c>
       <c r="E31" s="76">
         <f ca="1">E30+M2323</f>
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="F31" s="76">
         <f ca="1">E31+4</f>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="38">
@@ -4739,11 +4739,11 @@
       </c>
       <c r="E32" s="76">
         <f ca="1">E31+M253</f>
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="F32" s="76">
         <f ca="1">E32+5</f>
-        <v>45104</v>
+        <v>45109</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="38">
@@ -4820,11 +4820,11 @@
       </c>
       <c r="E33" s="76">
         <f ca="1">F32+1</f>
-        <v>45105</v>
+        <v>45110</v>
       </c>
       <c r="F33" s="76">
         <f ca="1">E33+4</f>
-        <v>45109</v>
+        <v>45114</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38">
@@ -4901,11 +4901,11 @@
       </c>
       <c r="E34" s="76">
         <f ca="1">E30</f>
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="F34" s="76">
         <f ca="1">E34+4</f>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38">
@@ -5054,11 +5054,11 @@
       </c>
       <c r="E36" s="76">
         <f ca="1">E32</f>
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="F36" s="76">
         <f ca="1">E36+4</f>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
@@ -6247,7 +6247,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="90">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E52" s="91">
         <v>45092</v>
@@ -6627,7 +6627,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="90">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E57" s="91">
         <v>45093</v>
@@ -6855,7 +6855,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="90">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E60" s="91">
         <v>45097</v>
@@ -7007,17 +7007,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D8 D51:D61 D37 D29">
@@ -7431,12 +7431,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7728,29 +7739,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7777,13 +7781,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>